--- a/산출물/6_ERD/테이블_목록.xlsx
+++ b/산출물/6_ERD/테이블_목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeong\Desktop\dev\000000_workspaces\user-manager\산출물\6_ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA2354-BF2F-4269-85C1-5AD45D9154C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01C3DAB-DBAA-4C37-9E78-277942001E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>2022. 09</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>DeletedUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginHistory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -599,6 +607,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,6 +694,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,25 +721,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1003,42 +1017,42 @@
   <sheetData>
     <row r="6" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="18" spans="4:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" s="1"/>
@@ -1051,28 +1065,28 @@
       <c r="F19" s="2"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1098,43 +1112,43 @@
   <sheetData>
     <row r="2" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="28"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="36"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41">
         <v>44824</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="7"/>
@@ -1477,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1490,79 +1504,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="28"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="43" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="46">
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
+  <mergeCells count="13">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="H3:I3"/>
@@ -1570,6 +1603,9 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E1:G2"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
